--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25276.5851379858</v>
+        <v>25289.6953836465</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32226244.99984872</v>
+        <v>32042055.5612121</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1728713.142854651</v>
+        <v>1795722.973993547</v>
       </c>
     </row>
     <row r="11">
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>423.590221574262</v>
+        <v>423.10545754068</v>
       </c>
       <c r="H44" t="n">
-        <v>364.0964285766221</v>
+        <v>359.1318389177005</v>
       </c>
       <c r="I44" t="n">
-        <v>307.6301510626203</v>
+        <v>288.9412856579506</v>
       </c>
       <c r="J44" t="n">
-        <v>220.8145154255395</v>
+        <v>179.6707740303099</v>
       </c>
       <c r="K44" t="n">
-        <v>237.6035998847812</v>
+        <v>175.9397969480259</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2164661104893</v>
+        <v>159.717065880999</v>
       </c>
       <c r="M44" t="n">
-        <v>220.0078473867499</v>
+        <v>134.8875247750459</v>
       </c>
       <c r="N44" t="n">
-        <v>221.8064051628984</v>
+        <v>135.3087467407796</v>
       </c>
       <c r="O44" t="n">
-        <v>237.5105870759031</v>
+        <v>155.8333010127153</v>
       </c>
       <c r="P44" t="n">
-        <v>254.5105921674962</v>
+        <v>184.8009181833638</v>
       </c>
       <c r="Q44" t="n">
-        <v>269.9201738698072</v>
+        <v>217.5711118383298</v>
       </c>
       <c r="R44" t="n">
-        <v>298.2075798861928</v>
+        <v>267.7565211616979</v>
       </c>
       <c r="S44" t="n">
-        <v>267.3897500463082</v>
+        <v>256.3431896310585</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5143983667847</v>
+        <v>223.3923438097795</v>
       </c>
       <c r="U44" t="n">
-        <v>248.90160553674</v>
+        <v>248.8628244140534</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,49 +25958,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.7691958893245</v>
+        <v>161.5098242651302</v>
       </c>
       <c r="H45" t="n">
-        <v>145.0346254522244</v>
+        <v>142.5296416080314</v>
       </c>
       <c r="I45" t="n">
-        <v>142.9187864913679</v>
+        <v>133.9886669741497</v>
       </c>
       <c r="J45" t="n">
-        <v>152.7163598114938</v>
+        <v>128.2114292993411</v>
       </c>
       <c r="K45" t="n">
-        <v>132.8321428767296</v>
+        <v>90.94931354355442</v>
       </c>
       <c r="L45" t="n">
-        <v>106.2172906491666</v>
+        <v>49.90065794854366</v>
       </c>
       <c r="M45" t="n">
-        <v>86.78770803595184</v>
+        <v>21.06885395828317</v>
       </c>
       <c r="N45" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>106.1428044880503</v>
+        <v>44.43169704212175</v>
       </c>
       <c r="P45" t="n">
-        <v>113.1372509970743</v>
+        <v>63.60864672438022</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.1032497894857</v>
+        <v>116.9946894800436</v>
       </c>
       <c r="R45" t="n">
-        <v>201.2206403963539</v>
+        <v>185.1168477994441</v>
       </c>
       <c r="S45" t="n">
-        <v>222.0319792704162</v>
+        <v>217.2142651104902</v>
       </c>
       <c r="T45" t="n">
-        <v>233.1353692460508</v>
+        <v>232.0899195853727</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6821109131418</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.8667022829468</v>
+        <v>169.6492538260798</v>
       </c>
       <c r="H46" t="n">
-        <v>173.1995317301106</v>
+        <v>171.2662172681476</v>
       </c>
       <c r="I46" t="n">
-        <v>186.7511453295697</v>
+        <v>180.2118771903329</v>
       </c>
       <c r="J46" t="n">
-        <v>176.9853811112088</v>
+        <v>161.6117752107116</v>
       </c>
       <c r="K46" t="n">
-        <v>160.9285108247983</v>
+        <v>135.6649537451591</v>
       </c>
       <c r="L46" t="n">
-        <v>155.0254166605068</v>
+        <v>122.6967615368433</v>
       </c>
       <c r="M46" t="n">
-        <v>156.7664471869165</v>
+        <v>122.6804131709369</v>
       </c>
       <c r="N46" t="n">
-        <v>142.0675024008435</v>
+        <v>108.7919580877318</v>
       </c>
       <c r="O46" t="n">
-        <v>160.1018542306906</v>
+        <v>129.3665032546162</v>
       </c>
       <c r="P46" t="n">
-        <v>166.3254994602277</v>
+        <v>140.0260970042402</v>
       </c>
       <c r="Q46" t="n">
-        <v>204.5868957048492</v>
+        <v>186.3785526484676</v>
       </c>
       <c r="R46" t="n">
-        <v>249.4848999638325</v>
+        <v>239.7076266214307</v>
       </c>
       <c r="S46" t="n">
-        <v>254.7116329346421</v>
+        <v>250.9220993726962</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7883730085969</v>
+        <v>219.8592750565288</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2422093919635</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149502.2714366449</v>
+        <v>265541.6177777118</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>16351.81093838303</v>
       </c>
       <c r="P2" t="n">
-        <v>16351.81093838303</v>
+        <v>29245.07164294605</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>80258.51747082274</v>
       </c>
     </row>
     <row r="4">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2628.754163106747</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>14015.83794718545</v>
       </c>
       <c r="P6" t="n">
-        <v>14015.83794718545</v>
+        <v>-55978.17298218101</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>120.5850533535205</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>120.5850533535205</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.4847640335819916</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.964589658921573</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.68886540466975</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>41.1437413952296</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>61.66380293675531</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>76.49940022949021</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>85.12032261170395</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>86.49765842211877</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>81.67728606318785</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>69.70967398413242</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>52.34906203147732</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>30.4510587244948</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>11.04656041524964</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.122054557005169</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.03878112268655932</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.2593716241943649</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.504983844192945</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.930119517218264</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.50493051215269</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>41.88282933317514</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>56.31663270062295</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>65.71885407766867</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>61.71110744592855</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>49.52860427269411</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>33.10856030944208</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>16.10379259690978</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.817714159926028</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.045449660678163</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.01706392264436611</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2174484568670041</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.933314461963002</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.539268139236817</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>15.37360590049719</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>25.26355707963921</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>32.32865512366352</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>34.08603401597956</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>33.27554431311167</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>30.73535097607438</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>26.29940245598748</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18.2083430563816</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.777273342401839</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.78953356194588</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.9290979520681084</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01186082492001842</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25289.6953836465</v>
+        <v>-148533.4693788112</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27508.88743204923</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32042055.5612121</v>
+        <v>29334887.55315837</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1795722.973993547</v>
+        <v>3045654.718673735</v>
       </c>
     </row>
     <row r="11">
@@ -8780,7 +8780,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N12" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O12" t="n">
         <v>102.4042030119497</v>
@@ -9017,7 +9017,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N15" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O15" t="n">
         <v>102.4042030119497</v>
@@ -9254,7 +9254,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N18" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O18" t="n">
         <v>102.4042030119497</v>
@@ -9491,7 +9491,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N21" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O21" t="n">
         <v>102.4042030119497</v>
@@ -9728,7 +9728,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N24" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O24" t="n">
         <v>102.4042030119497</v>
@@ -9965,7 +9965,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N27" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O27" t="n">
         <v>102.4042030119497</v>
@@ -10202,7 +10202,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N30" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O30" t="n">
         <v>102.4042030119497</v>
@@ -10439,7 +10439,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N33" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O33" t="n">
         <v>102.4042030119497</v>
@@ -10676,7 +10676,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N36" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O36" t="n">
         <v>102.4042030119497</v>
@@ -10913,7 +10913,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N39" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O39" t="n">
         <v>102.4042030119497</v>
@@ -11150,7 +11150,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N42" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O42" t="n">
         <v>102.4042030119497</v>
@@ -11387,7 +11387,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N45" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O45" t="n">
         <v>102.4042030119497</v>
@@ -23272,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H11" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I11" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659873</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K11" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L11" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M11" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N11" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O11" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P11" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q11" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R11" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S11" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U11" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,49 +23351,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H12" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I12" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J12" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K12" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L12" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838253</v>
       </c>
       <c r="M12" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P12" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R12" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S12" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T12" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H13" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I13" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J13" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K13" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L13" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M13" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N13" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O13" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P13" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R13" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S13" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H14" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I14" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659873</v>
       </c>
       <c r="J14" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K14" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L14" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M14" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N14" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O14" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P14" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q14" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R14" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S14" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T14" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U14" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,49 +23588,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H15" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I15" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J15" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K15" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L15" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838253</v>
       </c>
       <c r="M15" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P15" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R15" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S15" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T15" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H16" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I16" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J16" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K16" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L16" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M16" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N16" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O16" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P16" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R16" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S16" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H17" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I17" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J17" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K17" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M17" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N17" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O17" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P17" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q17" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R17" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S17" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T17" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U17" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,49 +23825,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H18" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I18" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J18" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K18" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L18" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M18" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P18" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R18" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S18" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T18" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H19" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I19" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J19" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K19" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L19" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M19" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N19" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O19" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P19" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R19" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S19" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H20" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I20" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659873</v>
       </c>
       <c r="J20" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K20" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L20" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M20" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N20" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O20" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P20" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R20" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S20" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U20" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,49 +24062,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H21" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I21" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J21" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K21" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L21" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838253</v>
       </c>
       <c r="M21" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P21" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R21" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S21" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T21" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H22" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I22" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J22" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K22" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L22" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M22" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N22" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O22" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P22" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R22" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S22" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H23" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I23" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J23" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K23" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L23" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M23" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N23" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O23" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P23" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q23" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R23" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S23" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T23" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U23" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,49 +24299,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H24" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I24" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J24" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K24" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L24" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M24" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P24" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R24" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S24" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T24" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H25" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I25" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J25" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K25" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L25" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M25" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N25" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O25" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P25" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R25" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S25" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H26" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I26" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K26" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L26" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M26" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N26" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O26" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P26" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q26" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R26" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S26" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T26" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U26" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,49 +24536,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H27" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I27" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J27" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K27" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L27" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M27" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P27" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R27" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S27" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T27" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H28" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I28" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J28" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K28" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L28" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M28" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N28" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O28" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P28" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R28" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S28" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H29" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I29" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K29" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L29" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M29" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N29" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O29" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P29" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q29" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R29" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S29" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U29" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,49 +24773,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H30" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I30" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J30" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K30" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L30" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M30" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P30" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R30" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S30" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T30" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H31" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I31" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J31" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K31" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L31" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M31" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O31" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P31" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R31" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S31" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H32" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I32" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J32" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K32" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L32" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M32" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N32" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O32" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P32" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q32" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R32" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S32" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U32" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,49 +25010,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H33" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I33" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J33" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K33" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L33" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M33" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P33" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R33" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S33" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T33" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H34" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I34" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J34" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K34" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L34" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M34" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N34" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O34" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P34" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R34" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S34" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H35" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I35" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J35" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M35" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N35" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O35" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P35" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q35" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R35" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S35" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T35" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U35" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,49 +25247,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H36" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I36" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J36" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K36" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L36" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M36" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P36" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q36" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R36" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S36" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T36" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H37" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I37" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J37" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K37" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L37" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M37" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N37" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O37" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P37" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q37" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R37" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S37" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H38" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I38" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J38" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K38" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M38" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N38" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O38" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P38" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q38" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R38" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S38" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T38" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U38" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,49 +25484,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H39" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I39" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J39" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K39" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L39" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M39" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P39" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R39" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S39" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T39" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H40" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I40" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K40" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L40" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M40" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N40" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O40" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P40" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q40" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R40" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S40" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H41" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I41" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J41" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K41" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L41" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M41" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N41" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O41" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P41" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q41" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R41" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S41" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T41" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U41" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,49 +25721,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H42" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I42" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J42" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K42" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L42" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M42" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P42" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R42" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S42" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T42" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H43" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I43" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J43" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K43" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L43" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M43" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N43" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O43" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P43" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q43" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R43" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S43" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25879,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>423.10545754068</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H44" t="n">
-        <v>359.1318389177005</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I44" t="n">
-        <v>288.9412856579506</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J44" t="n">
-        <v>179.6707740303099</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K44" t="n">
-        <v>175.9397969480259</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L44" t="n">
-        <v>159.717065880999</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M44" t="n">
-        <v>134.8875247750459</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N44" t="n">
-        <v>135.3087467407796</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O44" t="n">
-        <v>155.8333010127153</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8009181833638</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.5711118383298</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R44" t="n">
-        <v>267.7565211616979</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S44" t="n">
-        <v>256.3431896310585</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T44" t="n">
-        <v>223.3923438097795</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U44" t="n">
-        <v>248.8628244140534</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,49 +25958,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.5098242651302</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H45" t="n">
-        <v>142.5296416080314</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I45" t="n">
-        <v>133.9886669741497</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J45" t="n">
-        <v>128.2114292993411</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K45" t="n">
-        <v>90.94931354355442</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L45" t="n">
-        <v>49.90065794854366</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M45" t="n">
-        <v>21.06885395828317</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>44.43169704212175</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P45" t="n">
-        <v>63.60864672438022</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.9946894800436</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R45" t="n">
-        <v>185.1168477994441</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S45" t="n">
-        <v>217.2142651104902</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T45" t="n">
-        <v>232.0899195853727</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6821109131418</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.6492538260798</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H46" t="n">
-        <v>171.2662172681476</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I46" t="n">
-        <v>180.2118771903329</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J46" t="n">
-        <v>161.6117752107116</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K46" t="n">
-        <v>135.6649537451591</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L46" t="n">
-        <v>122.6967615368433</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M46" t="n">
-        <v>122.6804131709369</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N46" t="n">
-        <v>108.7919580877318</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O46" t="n">
-        <v>129.3665032546162</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P46" t="n">
-        <v>140.0260970042402</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.3785526484676</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R46" t="n">
-        <v>239.7076266214307</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S46" t="n">
-        <v>250.9220993726962</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T46" t="n">
-        <v>219.8592750565288</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2422093919635</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>149502.2714366449</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265541.6177777118</v>
+        <v>301275.6133150239</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>16351.81093838303</v>
       </c>
       <c r="E2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="F2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="G2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="H2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="I2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="J2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="K2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="L2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="M2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="N2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="O2" t="n">
-        <v>16351.81093838303</v>
+        <v>33218.06271074293</v>
       </c>
       <c r="P2" t="n">
-        <v>29245.07164294605</v>
+        <v>33218.06271074293</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>127936.7064205648</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>80258.51747082274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>2335.972991197576</v>
       </c>
       <c r="E4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="F4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="G4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="H4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="I4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="J4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="K4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="L4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="M4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="N4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="O4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="P4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3471.508321438074</v>
       </c>
       <c r="P5" t="n">
-        <v>2628.754163106747</v>
+        <v>3471.508321438074</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19611.76205281455</v>
+        <v>-41095.92538604698</v>
       </c>
       <c r="C6" t="n">
-        <v>-19611.76205281455</v>
+        <v>-41095.92538604698</v>
       </c>
       <c r="D6" t="n">
-        <v>-19611.76205281455</v>
+        <v>-41095.92538604698</v>
       </c>
       <c r="E6" t="n">
-        <v>14015.83794718545</v>
+        <v>-119577.8997439214</v>
       </c>
       <c r="F6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="G6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="H6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="I6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="J6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="K6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="L6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="M6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="N6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="O6" t="n">
-        <v>14015.83794718545</v>
+        <v>8358.806676643442</v>
       </c>
       <c r="P6" t="n">
-        <v>-55978.17298218101</v>
+        <v>8358.806676643442</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="P3" t="n">
-        <v>120.5850533535205</v>
+        <v>159.2435009833979</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>120.5850533535205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>92.05794772176419</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.802365529868639</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.05121399026601737</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.3425237568322143</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>74.37122185078408</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>43.72285710019634</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.380611107582478</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>92.05794772176419</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.802365529868639</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.05121399026601737</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.3425237568322143</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>74.37122185078408</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>43.72285710019634</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.380611107582478</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>92.05794772176419</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.802365529868639</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.05121399026601737</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.3425237568322143</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>74.37122185078408</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>43.72285710019634</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.380611107582478</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4847640335819916</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H44" t="n">
-        <v>4.964589658921573</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I44" t="n">
-        <v>18.68886540466975</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J44" t="n">
-        <v>41.1437413952296</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K44" t="n">
-        <v>61.66380293675531</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L44" t="n">
-        <v>76.49940022949021</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M44" t="n">
-        <v>85.12032261170395</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N44" t="n">
-        <v>86.49765842211877</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O44" t="n">
-        <v>81.67728606318785</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P44" t="n">
-        <v>69.70967398413242</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.34906203147732</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R44" t="n">
-        <v>30.4510587244948</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S44" t="n">
-        <v>11.04656041524964</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T44" t="n">
-        <v>2.122054557005169</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03878112268655932</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2593716241943649</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H45" t="n">
-        <v>2.504983844192945</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I45" t="n">
-        <v>8.930119517218264</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J45" t="n">
-        <v>24.50493051215269</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K45" t="n">
-        <v>41.88282933317514</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L45" t="n">
-        <v>56.31663270062295</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M45" t="n">
-        <v>65.71885407766867</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N45" t="n">
-        <v>67.45823659255106</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O45" t="n">
-        <v>61.71110744592855</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P45" t="n">
-        <v>49.52860427269411</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.10856030944208</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R45" t="n">
-        <v>16.10379259690978</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S45" t="n">
-        <v>4.817714159926028</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T45" t="n">
-        <v>1.045449660678163</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01706392264436611</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2174484568670041</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H46" t="n">
-        <v>1.933314461963002</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I46" t="n">
-        <v>6.539268139236817</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J46" t="n">
-        <v>15.37360590049719</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K46" t="n">
-        <v>25.26355707963921</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L46" t="n">
-        <v>32.32865512366352</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M46" t="n">
-        <v>34.08603401597956</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N46" t="n">
-        <v>33.27554431311167</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O46" t="n">
-        <v>30.73535097607438</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P46" t="n">
-        <v>26.29940245598748</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.2083430563816</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R46" t="n">
-        <v>9.777273342401839</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S46" t="n">
-        <v>3.78953356194588</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9290979520681084</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01186082492001842</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
